--- a/results/mp/logistic/corona/confidence/210/topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,24 +43,15 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
+    <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -76,130 +67,136 @@
     <t>of</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>your</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
-    <t>!</t>
+    <t>,</t>
   </si>
   <si>
     <t>and</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>a</t>
+    <t>in</t>
   </si>
 </sst>
 </file>
@@ -557,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,10 +562,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,13 +623,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.75</v>
+        <v>0.7773972602739726</v>
       </c>
       <c r="C3">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="D3">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,19 +641,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>0.9166666666666666</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -668,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -676,13 +673,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7105263157894737</v>
+        <v>0.4302325581395349</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,19 +691,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>294</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -718,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -726,13 +723,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4497354497354497</v>
+        <v>0.417989417989418</v>
       </c>
       <c r="C5">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D5">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -744,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -768,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -776,13 +773,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4406779661016949</v>
+        <v>0.2751677852348993</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -794,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -818,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,13 +823,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4341085271317829</v>
+        <v>0.225</v>
       </c>
       <c r="C7">
-        <v>224</v>
+        <v>81</v>
       </c>
       <c r="D7">
-        <v>224</v>
+        <v>81</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -844,19 +841,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.8490566037735849</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L7">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -868,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -876,37 +873,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.348993288590604</v>
+        <v>0.099601593625498</v>
       </c>
       <c r="C8">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>97</v>
+        <v>226</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.835509138381201</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L8">
-        <v>320</v>
+        <v>70</v>
       </c>
       <c r="M8">
-        <v>320</v>
+        <v>70</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -918,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -926,13 +923,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3333333333333333</v>
+        <v>0.07506702412868632</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -944,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>50</v>
+        <v>345</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,37 +973,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2277777777777778</v>
+        <v>0.02036199095022624</v>
       </c>
       <c r="C10">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D10">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>278</v>
+        <v>3031</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.8297872340425532</v>
+        <v>0.8433420365535248</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1018,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1026,37 +1023,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1349206349206349</v>
+        <v>0.01401869158878505</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>218</v>
+        <v>2321</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.8275862068965517</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="L11">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="M11">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1068,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1076,28 +1073,28 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.08847184986595175</v>
+        <v>0.01225836869401226</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.54</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>340</v>
+        <v>2095</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K12">
         <v>0.8055555555555556</v>
@@ -1126,37 +1123,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01618646811265782</v>
+        <v>0.01040848389630793</v>
       </c>
       <c r="C13">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D13">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="E13">
-        <v>0.26</v>
+        <v>0.58</v>
       </c>
       <c r="F13">
-        <v>0.74</v>
+        <v>0.42</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>3039</v>
+        <v>5039</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.795774647887324</v>
+        <v>0.8046875</v>
       </c>
       <c r="L13">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="M13">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1168,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1176,37 +1173,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01270110076206605</v>
+        <v>0.007949449653485529</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D14">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="E14">
-        <v>0.36</v>
+        <v>0.7</v>
       </c>
       <c r="F14">
-        <v>0.64</v>
+        <v>0.3</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>2332</v>
+        <v>4867</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K14">
-        <v>0.78125</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L14">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="M14">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1218,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1226,825 +1223,829 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.007014262333411269</v>
+        <v>0.007029053420805998</v>
       </c>
       <c r="C15">
         <v>30</v>
       </c>
       <c r="D15">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E15">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="F15">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>4247</v>
+        <v>4238</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15">
+        <v>0.79375</v>
+      </c>
+      <c r="L15">
+        <v>127</v>
+      </c>
+      <c r="M15">
+        <v>127</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="L16">
+        <v>46</v>
+      </c>
+      <c r="M16">
+        <v>46</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K15">
-        <v>0.7682926829268293</v>
-      </c>
-      <c r="L15">
-        <v>63</v>
-      </c>
-      <c r="M15">
-        <v>63</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.006704591629418936</v>
-      </c>
-      <c r="C16">
-        <v>33</v>
-      </c>
-      <c r="D16">
-        <v>107</v>
-      </c>
-      <c r="E16">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="F16">
-        <v>0.3100000000000001</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>4889</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="K17">
+        <v>0.7872340425531915</v>
+      </c>
+      <c r="L17">
         <v>37</v>
       </c>
-      <c r="K16">
+      <c r="M17">
+        <v>37</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18">
+        <v>0.7735849056603774</v>
+      </c>
+      <c r="L18">
+        <v>82</v>
+      </c>
+      <c r="M18">
+        <v>82</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19">
         <v>0.75</v>
       </c>
-      <c r="L16">
-        <v>96</v>
-      </c>
-      <c r="M16">
-        <v>96</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
+      <c r="L19">
+        <v>36</v>
+      </c>
+      <c r="M19">
+        <v>36</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20">
+        <v>0.725</v>
+      </c>
+      <c r="L20">
+        <v>29</v>
+      </c>
+      <c r="M20">
+        <v>29</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21">
+        <v>0.68</v>
+      </c>
+      <c r="L21">
+        <v>34</v>
+      </c>
+      <c r="M21">
+        <v>34</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22">
+        <v>0.6744186046511628</v>
+      </c>
+      <c r="L22">
+        <v>29</v>
+      </c>
+      <c r="M22">
+        <v>29</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23">
+        <v>0.6507936507936508</v>
+      </c>
+      <c r="L23">
+        <v>41</v>
+      </c>
+      <c r="M23">
+        <v>41</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>22</v>
       </c>
-      <c r="B17">
-        <v>0.006687647521636507</v>
-      </c>
-      <c r="C17">
-        <v>34</v>
-      </c>
-      <c r="D17">
-        <v>115</v>
-      </c>
-      <c r="E17">
-        <v>0.7</v>
-      </c>
-      <c r="F17">
-        <v>0.3</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>5050</v>
-      </c>
-      <c r="J17" s="1" t="s">
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24">
+        <v>0.6352941176470588</v>
+      </c>
+      <c r="L24">
+        <v>216</v>
+      </c>
+      <c r="M24">
+        <v>216</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25">
+        <v>0.6033898305084746</v>
+      </c>
+      <c r="L25">
+        <v>178</v>
+      </c>
+      <c r="M25">
+        <v>178</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="L26">
+        <v>56</v>
+      </c>
+      <c r="M26">
+        <v>56</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>38</v>
       </c>
-      <c r="K17">
-        <v>0.7209302325581395</v>
-      </c>
-      <c r="L17">
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27">
+        <v>0.5941422594142259</v>
+      </c>
+      <c r="L27">
+        <v>142</v>
+      </c>
+      <c r="M27">
+        <v>142</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L28">
+        <v>40</v>
+      </c>
+      <c r="M28">
+        <v>40</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29">
+        <v>0.5692307692307692</v>
+      </c>
+      <c r="L29">
+        <v>37</v>
+      </c>
+      <c r="M29">
+        <v>37</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30">
+        <v>0.550561797752809</v>
+      </c>
+      <c r="L30">
+        <v>49</v>
+      </c>
+      <c r="M30">
+        <v>49</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="L31">
+        <v>27</v>
+      </c>
+      <c r="M31">
+        <v>27</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K32">
+        <v>0.3974358974358974</v>
+      </c>
+      <c r="L32">
         <v>31</v>
       </c>
-      <c r="M17">
+      <c r="M32">
         <v>31</v>
       </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="J18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="L18">
-        <v>28</v>
-      </c>
-      <c r="M18">
-        <v>28</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="J19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="L19">
-        <v>34</v>
-      </c>
-      <c r="M19">
-        <v>34</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20">
-        <v>0.7</v>
-      </c>
-      <c r="L20">
-        <v>35</v>
-      </c>
-      <c r="M20">
-        <v>35</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21">
-        <v>0.6825396825396826</v>
-      </c>
-      <c r="L21">
-        <v>43</v>
-      </c>
-      <c r="M21">
-        <v>43</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22">
-        <v>0.6615384615384615</v>
-      </c>
-      <c r="L22">
-        <v>43</v>
-      </c>
-      <c r="M22">
-        <v>43</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23">
-        <v>0.6323529411764706</v>
-      </c>
-      <c r="L23">
-        <v>215</v>
-      </c>
-      <c r="M23">
-        <v>215</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K24">
-        <v>0.6305084745762712</v>
-      </c>
-      <c r="L24">
-        <v>186</v>
-      </c>
-      <c r="M24">
-        <v>186</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K25">
-        <v>0.6063829787234043</v>
-      </c>
-      <c r="L25">
-        <v>57</v>
-      </c>
-      <c r="M25">
-        <v>57</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>47</v>
-      </c>
-      <c r="K26">
-        <v>0.602510460251046</v>
-      </c>
-      <c r="L26">
-        <v>144</v>
-      </c>
-      <c r="M26">
-        <v>144</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27">
-        <v>0.5285714285714286</v>
-      </c>
-      <c r="L27">
-        <v>37</v>
-      </c>
-      <c r="M27">
-        <v>37</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K28">
-        <v>0.5056179775280899</v>
-      </c>
-      <c r="L28">
-        <v>45</v>
-      </c>
-      <c r="M28">
-        <v>45</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K29">
-        <v>0.4901960784313725</v>
-      </c>
-      <c r="L29">
-        <v>25</v>
-      </c>
-      <c r="M29">
-        <v>25</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30">
-        <v>0.4027777777777778</v>
-      </c>
-      <c r="L30">
-        <v>29</v>
-      </c>
-      <c r="M30">
-        <v>30</v>
-      </c>
-      <c r="N30">
-        <v>0.97</v>
-      </c>
-      <c r="O30">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P30" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q30">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L31">
-        <v>26</v>
-      </c>
-      <c r="M31">
-        <v>26</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K32">
-        <v>0.05311355311355311</v>
-      </c>
-      <c r="L32">
-        <v>29</v>
-      </c>
-      <c r="M32">
-        <v>30</v>
-      </c>
-      <c r="N32">
-        <v>0.97</v>
-      </c>
-      <c r="O32">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P32" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>517</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.04177109440267335</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L33">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="N33">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>1147</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.0303951367781155</v>
+        <v>0.06776556776556776</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M34">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N34">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O34">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>957</v>
+        <v>509</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0.02296686746987952</v>
+        <v>0.05004170141784821</v>
       </c>
       <c r="L35">
+        <v>60</v>
+      </c>
+      <c r="M35">
         <v>61</v>
       </c>
-      <c r="M35">
-        <v>78</v>
-      </c>
       <c r="N35">
-        <v>0.78</v>
+        <v>0.98</v>
       </c>
       <c r="O35">
-        <v>0.22</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>2595</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0.02294154619736015</v>
+        <v>0.02265238879736409</v>
       </c>
       <c r="L36">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="M36">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="N36">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="O36">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>3109</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>0.01954602774274905</v>
+        <v>0.02265005662514156</v>
       </c>
       <c r="L37">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="M37">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="N37">
-        <v>0.79</v>
+        <v>0.71</v>
       </c>
       <c r="O37">
-        <v>0.21</v>
+        <v>0.29</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>1555</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K38">
-        <v>0.01589958158995816</v>
+        <v>0.01926298157453936</v>
       </c>
       <c r="L38">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M38">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="N38">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="O38">
-        <v>0.09999999999999998</v>
+        <v>0.12</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>2352</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>0.0157863964139544</v>
+        <v>0.01896333754740834</v>
       </c>
       <c r="L39">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="M39">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="N39">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="O39">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>5050</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="K40">
-        <v>0.01559934318555008</v>
+        <v>0.01815614282832358</v>
       </c>
       <c r="L40">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="M40">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="N40">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="O40">
-        <v>0.1899999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>2398</v>
+        <v>4867</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="K41">
-        <v>0.01491033649002619</v>
+        <v>0.01636764242996538</v>
       </c>
       <c r="L41">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="M41">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="N41">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="O41">
-        <v>0.3100000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>4889</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K42">
-        <v>0.01186598417868776</v>
+        <v>0.01428012519561815</v>
       </c>
       <c r="L42">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="M42">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="N42">
-        <v>0.63</v>
+        <v>0.58</v>
       </c>
       <c r="O42">
-        <v>0.37</v>
+        <v>0.42</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>4247</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K43">
-        <v>0.01090750436300175</v>
+        <v>0.01397298556124825</v>
       </c>
       <c r="L43">
+        <v>30</v>
+      </c>
+      <c r="M43">
+        <v>41</v>
+      </c>
+      <c r="N43">
+        <v>0.73</v>
+      </c>
+      <c r="O43">
+        <v>0.27</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44">
+        <v>0.01395998138669148</v>
+      </c>
+      <c r="L44">
+        <v>60</v>
+      </c>
+      <c r="M44">
+        <v>90</v>
+      </c>
+      <c r="N44">
+        <v>0.67</v>
+      </c>
+      <c r="O44">
+        <v>0.33</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45">
+        <v>0.01065643648763853</v>
+      </c>
+      <c r="L45">
         <v>25</v>
       </c>
-      <c r="M43">
-        <v>42</v>
-      </c>
-      <c r="N43">
-        <v>0.6</v>
-      </c>
-      <c r="O43">
-        <v>0.4</v>
-      </c>
-      <c r="P43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <v>2267</v>
+      <c r="M45">
+        <v>58</v>
+      </c>
+      <c r="N45">
+        <v>0.43</v>
+      </c>
+      <c r="O45">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>2321</v>
       </c>
     </row>
   </sheetData>
